--- a/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
+++ b/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C75FC5-5BC9-4B1D-90F4-F38FD73E0A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Color Codes</t>
   </si>
@@ -160,12 +159,24 @@
     <t xml:space="preserve"> Battery Standby for 5V - 0.01
 Alarm Load for 5V - 0.019
 Need to add in default values</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -306,7 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -317,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -331,9 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,13 +643,14 @@
     <col min="10" max="13" width="25.21875" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="25.33203125" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="16" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" customWidth="1"/>
     <col min="18" max="18" width="23.44140625" customWidth="1"/>
     <col min="19" max="19" width="25.21875" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -650,7 +661,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -663,7 +674,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -676,7 +687,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -691,7 +702,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -700,7 +711,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="I6" s="23" t="s">
         <v>35</v>
@@ -713,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="O6" s="25"/>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="20" t="s">
         <v>43</v>
       </c>
       <c r="Q6" s="24" t="s">
@@ -721,7 +732,7 @@
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -758,24 +769,30 @@
       <c r="M7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="S7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -811,10 +828,10 @@
       <c r="M8" s="10">
         <v>0.03</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>0.27200000000000002</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>0.47099999999999997</v>
       </c>
       <c r="P8" s="10" t="s">
@@ -826,7 +843,12 @@
       <c r="R8" s="15">
         <v>0.46</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -842,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
+++ b/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B981A-EAA3-4576-A221-CC0E6676F812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +639,8 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="25.21875" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -646,11 +648,9 @@
     <col min="16" max="16" width="25.33203125" style="16" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" customWidth="1"/>
     <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="25.21875" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -658,10 +658,14 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -671,10 +675,14 @@
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -687,7 +695,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -702,7 +710,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -711,7 +719,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="I6" s="23" t="s">
         <v>35</v>
@@ -732,7 +740,7 @@
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -784,14 +792,8 @@
       <c r="R7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
@@ -842,12 +844,6 @@
       </c>
       <c r="R8" s="15">
         <v>0.46</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
+++ b/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B981A-EAA3-4576-A221-CC0E6676F812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -168,16 +167,19 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>MPM800-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L8" s="10">
         <v>2.1999999999999999E-2</v>
@@ -860,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
+++ b/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EDD238-2AC2-4C15-BCF4-38B512904990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Color Codes</t>
   </si>
@@ -174,12 +176,18 @@
   </si>
   <si>
     <t>MPM800-1</t>
+  </si>
+  <si>
+    <t>FC708D</t>
+  </si>
+  <si>
+    <t>FC64-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,29 +635,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="25.21875" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="16" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="25.21875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="25" style="16" customWidth="1"/>
+    <col min="15" max="16" width="25.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -797,7 +805,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -846,6 +854,59 @@
       </c>
       <c r="R8" s="15">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.44500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -960,4 +1021,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEE7BC3-67EE-424D-A1F6-F690C3BD81DB}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="16" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="25.21875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="25" style="16" customWidth="1"/>
+    <col min="15" max="16" width="25.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="I6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
+++ b/Test Data/TC_71807_Verify_Normal_Load_On_Changing_Of_Power_Supply_Of_MPM_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EDD238-2AC2-4C15-BCF4-38B512904990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900D5AFE-C65D-430B-840E-AEA60BEA490A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Color Codes</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>FC64-2</t>
+  </si>
+  <si>
+    <t>NGC-1928/T963 OR TC-71807</t>
+  </si>
+  <si>
+    <t>verifyBatteryStandbyAndAlarmLoadOnChangingPowerSupply</t>
   </si>
 </sst>
 </file>
@@ -639,13 +645,13 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="16" customWidth="1"/>
     <col min="4" max="5" width="16.77734375" style="16" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -692,11 +698,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
@@ -710,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -810,8 +818,8 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -820,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="15">
-        <v>0.25</v>
+        <v>0.223</v>
       </c>
       <c r="G8" s="15">
-        <v>0.441</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>32</v>
@@ -841,19 +849,19 @@
         <v>0.03</v>
       </c>
       <c r="N8" s="19">
-        <v>0.27200000000000002</v>
+        <v>0.245</v>
       </c>
       <c r="O8" s="19">
-        <v>0.47099999999999997</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="Q8" s="15">
-        <v>0.26</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="R8" s="15">
-        <v>0.46</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -876,7 +884,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="G9" s="15">
-        <v>0.42599999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>32</v>
@@ -897,7 +905,7 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="O9" s="19">
-        <v>0.45600000000000002</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>40</v>
@@ -906,7 +914,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="R9" s="15">
-        <v>0.44500000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1025,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEE7BC3-67EE-424D-A1F6-F690C3BD81DB}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,6 +1306,59 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <v>14</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
